--- a/_site/markdown_generator/talks.xlsx
+++ b/_site/markdown_generator/talks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duclut/Nextcloud/charlieduclut.github.io/markdown_generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/charlieduclut.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D584BBB3-7518-B44E-8E4A-2EB92A8E83D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E67C25-43F7-5248-8214-6B3AFCA50F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13440" xr2:uid="{F09A7C8F-8E58-E542-BD9D-52A82FED7577}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="133">
   <si>
     <t>title</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Journées de Physique Statistique</t>
   </si>
   <si>
-    <t xml:space="preserve"> ESPCI, Paris, France</t>
-  </si>
-  <si>
     <t>Langevin equations for reaction-diffusion processes</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t>poster-2</t>
   </si>
   <si>
-    <t>Beg Rohu summer school, France</t>
-  </si>
-  <si>
     <t>Beg Rohu, France</t>
   </si>
   <si>
@@ -271,9 +265,6 @@
     <t>poster-4</t>
   </si>
   <si>
-    <t>Les Houches summer school, France</t>
-  </si>
-  <si>
     <t>Les Houches, France</t>
   </si>
   <si>
@@ -317,6 +308,129 @@
   </si>
   <si>
     <t>Physics Meets Biology</t>
+  </si>
+  <si>
+    <t>inv-talk-1</t>
+  </si>
+  <si>
+    <t>inv-talk-2</t>
+  </si>
+  <si>
+    <t>Fluid pumping and flexoelectricity can drive lumen nucleation in cell spheroids</t>
+  </si>
+  <si>
+    <t>Hydraulic and electric control of a cell spheroid</t>
+  </si>
+  <si>
+    <t>seminar-9</t>
+  </si>
+  <si>
+    <t>Laboratoire de Physique Théorique de la Matière Condensée</t>
+  </si>
+  <si>
+    <t>Renormalization group approach to the collective dynamics of chemotactic cells</t>
+  </si>
+  <si>
+    <t>Beg Rohu summer school</t>
+  </si>
+  <si>
+    <t>Les Houches summer school</t>
+  </si>
+  <si>
+    <t>Active mechanical and electrohydraulic properties of tissues</t>
+  </si>
+  <si>
+    <t>seminar-10</t>
+  </si>
+  <si>
+    <t>seminar-11</t>
+  </si>
+  <si>
+    <t>seminar-12</t>
+  </si>
+  <si>
+    <t>seminar-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratoire Jean Perrin </t>
+  </si>
+  <si>
+    <t>Laboratoire Physico-Chimie Curie</t>
+  </si>
+  <si>
+    <t>Institut Curie, Paris, France</t>
+  </si>
+  <si>
+    <t>ESPCI, Paris, France</t>
+  </si>
+  <si>
+    <t>Laboratoire Physique et Mécanique des Milieux Hétérogènes</t>
+  </si>
+  <si>
+    <t>Labex "Who am I?" 2022 annual meeting</t>
+  </si>
+  <si>
+    <t>ENSA, Paris, France</t>
+  </si>
+  <si>
+    <t>New frontiers in liquid matter</t>
+  </si>
+  <si>
+    <t>Invited talk</t>
+  </si>
+  <si>
+    <t>Sitges conference on Statistical Mechanics</t>
+  </si>
+  <si>
+    <t>talk-9</t>
+  </si>
+  <si>
+    <t>Stochastic dynamics of chemotactic colonies with logistic growth</t>
+  </si>
+  <si>
+    <t>talk-10</t>
+  </si>
+  <si>
+    <t>École Normale Supérieure de Paris, France</t>
+  </si>
+  <si>
+    <t>Hotel Calipolis, Sitges, Spain</t>
+  </si>
+  <si>
+    <t>poster-11</t>
+  </si>
+  <si>
+    <t>New Perspectives in Active Systems</t>
+  </si>
+  <si>
+    <t>poster-12</t>
+  </si>
+  <si>
+    <t>Electrohydraulics of cells and tissues</t>
+  </si>
+  <si>
+    <t>Institute Scientific Evaluation</t>
+  </si>
+  <si>
+    <t>Engineering Life – Active Matter Across Scales</t>
+  </si>
+  <si>
+    <t>Steigenberger Hotel de Saxe Dresden, Germany</t>
+  </si>
+  <si>
+    <t>poster-13</t>
+  </si>
+  <si>
+    <t>talk-11</t>
+  </si>
+  <si>
+    <t>Rice Global Paris Center, Paris, France</t>
+  </si>
+  <si>
+    <t>Hydraulic and electric properties of tissues</t>
+  </si>
+  <si>
+    <t>Physics meets Biology</t>
   </si>
 </sst>
 </file>
@@ -326,7 +440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -337,6 +451,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -681,17 +801,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C56962E-EF5E-A549-B915-DB3E499CC727}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="63" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -720,525 +841,786 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1">
-        <v>42397</v>
+        <v>43559</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1">
-        <v>43171</v>
+        <v>44907</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
-        <v>43291</v>
+        <v>42397</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
-        <v>43551</v>
+        <v>43171</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
+      <c r="C6" t="s">
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
-        <v>43559</v>
+        <v>43291</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1">
-        <v>44271</v>
+        <v>43551</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1">
-        <v>44278</v>
+        <v>44271</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="3">
-        <v>44454</v>
+        <v>32</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44278</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3">
-        <v>42824</v>
+        <v>44454</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3">
-        <v>43837</v>
+        <v>113</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44749</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="3">
-        <v>43839</v>
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44952</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="3">
-        <v>43845</v>
+        <v>115</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45075</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="3">
-        <v>43921</v>
+        <v>132</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45223</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3">
-        <v>44118</v>
+        <v>42824</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3">
-        <v>44137</v>
+        <v>43837</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3">
-        <v>44145</v>
+        <v>43839</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3">
-        <v>41050</v>
+        <v>43845</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E19" s="3">
-        <v>42583</v>
+        <v>43921</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>75</v>
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E20" s="3">
-        <v>42775</v>
+        <v>44118</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
+        <v>38</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E21" s="3">
-        <v>43313</v>
+        <v>44137</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
+        <v>38</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E22" s="3">
-        <v>43586</v>
+        <v>44145</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E23" s="3">
-        <v>43649</v>
+        <v>44543</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>87</v>
+        <v>38</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E24" s="3">
-        <v>43759</v>
+        <v>44589</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>89</v>
+        <v>38</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E25" s="3">
-        <v>44125</v>
+        <v>44608</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E26" s="3">
-        <v>44354</v>
+        <v>44614</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="3">
+        <v>44844</v>
+      </c>
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
         <v>68</v>
       </c>
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="3">
+        <v>41050</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="3">
+        <v>42583</v>
+      </c>
+      <c r="F29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="3">
+        <v>42775</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="3">
+        <v>43313</v>
+      </c>
+      <c r="F31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="3">
+        <v>43586</v>
+      </c>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="3">
+        <v>43649</v>
+      </c>
+      <c r="F33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="3">
+        <v>43759</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="3">
+        <v>44125</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="3">
+        <v>44354</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="3">
         <v>44403</v>
       </c>
-      <c r="F27" t="s">
-        <v>31</v>
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="1">
+        <v>44656</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="1">
+        <v>44740</v>
+      </c>
+      <c r="F39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45041</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>